--- a/Meridian_system_docs/Meridian90_220703.xlsx
+++ b/Meridian_system_docs/Meridian90_220703.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/izumi.n/Desktop/Meridian/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89388D76-D0DF-0942-AB5E-12C69A49C2C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECB381F-81F8-5443-8F85-8675309B46E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7220" yWindow="620" windowWidth="21580" windowHeight="16100" activeTab="1" xr2:uid="{D34549BF-B831-B240-8FA4-EFC967946BE7}"/>
+    <workbookView xWindow="660" yWindow="2860" windowWidth="21580" windowHeight="13660" xr2:uid="{D34549BF-B831-B240-8FA4-EFC967946BE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Meridim90" sheetId="1" r:id="rId1"/>
@@ -1098,20 +1098,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>インクリメントカウンタ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フレーム同期確認カウンタ0~59,999</t>
-    <rPh sb="4" eb="6">
-      <t xml:space="preserve">ドウキ </t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t xml:space="preserve">カクニン </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>フレームカウンタ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1145,10 +1131,7 @@
       <t xml:space="preserve">テイギ </t>
     </rPh>
     <rPh sb="19" eb="20">
-      <t xml:space="preserve">ツギ </t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t xml:space="preserve">チョウ </t>
+      <t xml:space="preserve">ツギ チョウ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1164,10 +1147,7 @@
       <t xml:space="preserve">テイギ </t>
     </rPh>
     <rPh sb="19" eb="20">
-      <t xml:space="preserve">ツギ </t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t xml:space="preserve">チョウ </t>
+      <t xml:space="preserve">ツギ チョウ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1199,10 +1179,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>インクリメントカウンタ フレーム同期確認カウンタ0~59,999</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>※89</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1240,13 +1216,7 @@
   <si>
     <t xml:space="preserve">            0:エラーなし , 1~99:メッセージ未定義 , </t>
     <rPh sb="32" eb="35">
-      <t xml:space="preserve">ミテイギ </t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t xml:space="preserve">ケイ </t>
-    </rPh>
-    <rPh sb="71" eb="72">
-      <t xml:space="preserve">ケイ </t>
+      <t xml:space="preserve">ミテイギ ケイ ケイ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1519,6 +1489,27 @@
   </si>
   <si>
     <t xml:space="preserve">Index[1]  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フレーム同期確認カウンタ-30,000~+29,999</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フレーム同期確認用インクリメント</t>
+    <rPh sb="8" eb="9">
+      <t xml:space="preserve">ヨウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -30,000~+29,999</t>
+    <rPh sb="1" eb="3">
+      <t xml:space="preserve">ドウキ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">カクニン </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1820,7 +1811,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1914,6 +1905,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1944,6 +1938,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1966,15 +1963,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1">
@@ -2049,6 +2037,12 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2090,6 +2084,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2414,10 +2414,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F266B4A8-C57D-D44D-9DD7-AC4E3D56BBF6}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="91" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2430,63 +2433,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="49" t="s">
-        <v>222</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="51"/>
+      <c r="A1" s="92" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="91" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="91" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1">
-      <c r="A3" s="34">
+      <c r="A3" s="35">
         <v>0</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="36" t="s">
         <v>96</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="37" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1">
-      <c r="A4" s="73">
+      <c r="A4" s="72">
         <v>1</v>
       </c>
-      <c r="B4" s="73" t="s">
-        <v>216</v>
-      </c>
-      <c r="C4" s="73" t="s">
+      <c r="B4" s="72" t="s">
         <v>214</v>
       </c>
-      <c r="D4" s="73" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="73" t="s">
-        <v>215</v>
+      <c r="C4" s="72" t="s">
+        <v>261</v>
+      </c>
+      <c r="D4" s="72" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="72" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1">
@@ -2685,76 +2688,76 @@
       <c r="E17" s="18"/>
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1">
-      <c r="A18" s="60">
+      <c r="A18" s="59">
         <v>15</v>
       </c>
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="60" t="s">
         <v>180</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="62" t="s">
-        <v>98</v>
-      </c>
-      <c r="E18" s="62"/>
+      <c r="D18" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="61"/>
     </row>
     <row r="19" spans="1:5" s="1" customFormat="1">
-      <c r="A19" s="63">
+      <c r="A19" s="62">
         <v>16</v>
       </c>
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="63" t="s">
         <v>181</v>
       </c>
-      <c r="C19" s="63" t="s">
+      <c r="C19" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="65" t="s">
-        <v>98</v>
-      </c>
-      <c r="E19" s="65"/>
+      <c r="D19" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="64"/>
     </row>
     <row r="20" spans="1:5" s="1" customFormat="1">
-      <c r="A20" s="63">
+      <c r="A20" s="62">
         <v>17</v>
       </c>
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="63" t="s">
         <v>182</v>
       </c>
-      <c r="C20" s="63" t="s">
+      <c r="C20" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="65" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20" s="65"/>
+      <c r="D20" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="64"/>
     </row>
     <row r="21" spans="1:5" s="1" customFormat="1">
-      <c r="A21" s="66">
+      <c r="A21" s="65">
         <v>18</v>
       </c>
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="66" t="s">
         <v>198</v>
       </c>
-      <c r="C21" s="66" t="s">
+      <c r="C21" s="65" t="s">
         <v>197</v>
       </c>
-      <c r="D21" s="68" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" s="68"/>
+      <c r="D21" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="67"/>
     </row>
     <row r="22" spans="1:5" s="1" customFormat="1">
-      <c r="A22" s="74">
+      <c r="A22" s="73">
         <v>19</v>
       </c>
-      <c r="B22" s="74" t="s">
-        <v>217</v>
-      </c>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74" t="s">
-        <v>218</v>
+      <c r="B22" s="73" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="1" customFormat="1">
@@ -3154,27 +3157,27 @@
       <c r="E52" s="10"/>
     </row>
     <row r="53" spans="1:5" s="1" customFormat="1">
-      <c r="A53" s="41">
+      <c r="A53" s="43">
         <v>50</v>
       </c>
-      <c r="B53" s="42" t="s">
+      <c r="B53" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="43"/>
-      <c r="D53" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="E53" s="44"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="E53" s="46"/>
     </row>
     <row r="54" spans="1:5" s="1" customFormat="1" ht="19" customHeight="1">
       <c r="A54" s="21">
         <v>51</v>
       </c>
-      <c r="B54" s="31" t="s">
+      <c r="B54" s="32" t="s">
         <v>56</v>
       </c>
       <c r="C54" s="22"/>
-      <c r="D54" s="31" t="s">
+      <c r="D54" s="32" t="s">
         <v>98</v>
       </c>
       <c r="E54" s="23"/>
@@ -3183,11 +3186,11 @@
       <c r="A55" s="21">
         <v>52</v>
       </c>
-      <c r="B55" s="31" t="s">
+      <c r="B55" s="32" t="s">
         <v>57</v>
       </c>
       <c r="C55" s="22"/>
-      <c r="D55" s="31" t="s">
+      <c r="D55" s="32" t="s">
         <v>98</v>
       </c>
       <c r="E55" s="23"/>
@@ -3196,11 +3199,11 @@
       <c r="A56" s="21">
         <v>53</v>
       </c>
-      <c r="B56" s="31" t="s">
+      <c r="B56" s="32" t="s">
         <v>58</v>
       </c>
       <c r="C56" s="22"/>
-      <c r="D56" s="31" t="s">
+      <c r="D56" s="32" t="s">
         <v>98</v>
       </c>
       <c r="E56" s="23"/>
@@ -3209,11 +3212,11 @@
       <c r="A57" s="21">
         <v>54</v>
       </c>
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="32" t="s">
         <v>59</v>
       </c>
       <c r="C57" s="22"/>
-      <c r="D57" s="31" t="s">
+      <c r="D57" s="32" t="s">
         <v>98</v>
       </c>
       <c r="E57" s="23"/>
@@ -3222,11 +3225,11 @@
       <c r="A58" s="21">
         <v>55</v>
       </c>
-      <c r="B58" s="31" t="s">
+      <c r="B58" s="32" t="s">
         <v>60</v>
       </c>
       <c r="C58" s="22"/>
-      <c r="D58" s="31" t="s">
+      <c r="D58" s="32" t="s">
         <v>98</v>
       </c>
       <c r="E58" s="23"/>
@@ -3235,11 +3238,11 @@
       <c r="A59" s="21">
         <v>56</v>
       </c>
-      <c r="B59" s="31" t="s">
+      <c r="B59" s="32" t="s">
         <v>61</v>
       </c>
       <c r="C59" s="22"/>
-      <c r="D59" s="31" t="s">
+      <c r="D59" s="32" t="s">
         <v>98</v>
       </c>
       <c r="E59" s="23"/>
@@ -3248,11 +3251,11 @@
       <c r="A60" s="21">
         <v>57</v>
       </c>
-      <c r="B60" s="31" t="s">
+      <c r="B60" s="32" t="s">
         <v>62</v>
       </c>
       <c r="C60" s="22"/>
-      <c r="D60" s="31" t="s">
+      <c r="D60" s="32" t="s">
         <v>98</v>
       </c>
       <c r="E60" s="23"/>
@@ -3261,11 +3264,11 @@
       <c r="A61" s="21">
         <v>58</v>
       </c>
-      <c r="B61" s="31" t="s">
+      <c r="B61" s="32" t="s">
         <v>63</v>
       </c>
       <c r="C61" s="22"/>
-      <c r="D61" s="31" t="s">
+      <c r="D61" s="32" t="s">
         <v>98</v>
       </c>
       <c r="E61" s="23"/>
@@ -3274,11 +3277,11 @@
       <c r="A62" s="21">
         <v>59</v>
       </c>
-      <c r="B62" s="31" t="s">
+      <c r="B62" s="32" t="s">
         <v>64</v>
       </c>
       <c r="C62" s="22"/>
-      <c r="D62" s="31" t="s">
+      <c r="D62" s="32" t="s">
         <v>98</v>
       </c>
       <c r="E62" s="23"/>
@@ -3287,11 +3290,11 @@
       <c r="A63" s="21">
         <v>60</v>
       </c>
-      <c r="B63" s="31" t="s">
+      <c r="B63" s="32" t="s">
         <v>65</v>
       </c>
       <c r="C63" s="22"/>
-      <c r="D63" s="31" t="s">
+      <c r="D63" s="32" t="s">
         <v>98</v>
       </c>
       <c r="E63" s="23"/>
@@ -3300,11 +3303,11 @@
       <c r="A64" s="21">
         <v>61</v>
       </c>
-      <c r="B64" s="31" t="s">
+      <c r="B64" s="32" t="s">
         <v>66</v>
       </c>
       <c r="C64" s="22"/>
-      <c r="D64" s="31" t="s">
+      <c r="D64" s="32" t="s">
         <v>98</v>
       </c>
       <c r="E64" s="23"/>
@@ -3313,11 +3316,11 @@
       <c r="A65" s="21">
         <v>62</v>
       </c>
-      <c r="B65" s="31" t="s">
+      <c r="B65" s="32" t="s">
         <v>67</v>
       </c>
       <c r="C65" s="22"/>
-      <c r="D65" s="31" t="s">
+      <c r="D65" s="32" t="s">
         <v>98</v>
       </c>
       <c r="E65" s="23"/>
@@ -3326,11 +3329,11 @@
       <c r="A66" s="21">
         <v>63</v>
       </c>
-      <c r="B66" s="31" t="s">
+      <c r="B66" s="32" t="s">
         <v>68</v>
       </c>
       <c r="C66" s="22"/>
-      <c r="D66" s="31" t="s">
+      <c r="D66" s="32" t="s">
         <v>98</v>
       </c>
       <c r="E66" s="23"/>
@@ -3339,11 +3342,11 @@
       <c r="A67" s="21">
         <v>64</v>
       </c>
-      <c r="B67" s="31" t="s">
+      <c r="B67" s="32" t="s">
         <v>69</v>
       </c>
       <c r="C67" s="22"/>
-      <c r="D67" s="31" t="s">
+      <c r="D67" s="32" t="s">
         <v>98</v>
       </c>
       <c r="E67" s="23"/>
@@ -3352,11 +3355,11 @@
       <c r="A68" s="21">
         <v>65</v>
       </c>
-      <c r="B68" s="31" t="s">
+      <c r="B68" s="32" t="s">
         <v>70</v>
       </c>
       <c r="C68" s="22"/>
-      <c r="D68" s="31" t="s">
+      <c r="D68" s="32" t="s">
         <v>98</v>
       </c>
       <c r="E68" s="23"/>
@@ -3365,11 +3368,11 @@
       <c r="A69" s="21">
         <v>66</v>
       </c>
-      <c r="B69" s="31" t="s">
+      <c r="B69" s="32" t="s">
         <v>71</v>
       </c>
       <c r="C69" s="22"/>
-      <c r="D69" s="31" t="s">
+      <c r="D69" s="32" t="s">
         <v>98</v>
       </c>
       <c r="E69" s="23"/>
@@ -3378,11 +3381,11 @@
       <c r="A70" s="21">
         <v>67</v>
       </c>
-      <c r="B70" s="31" t="s">
+      <c r="B70" s="32" t="s">
         <v>72</v>
       </c>
       <c r="C70" s="22"/>
-      <c r="D70" s="31" t="s">
+      <c r="D70" s="32" t="s">
         <v>98</v>
       </c>
       <c r="E70" s="23"/>
@@ -3391,11 +3394,11 @@
       <c r="A71" s="21">
         <v>68</v>
       </c>
-      <c r="B71" s="31" t="s">
+      <c r="B71" s="32" t="s">
         <v>73</v>
       </c>
       <c r="C71" s="22"/>
-      <c r="D71" s="31" t="s">
+      <c r="D71" s="32" t="s">
         <v>98</v>
       </c>
       <c r="E71" s="23"/>
@@ -3404,11 +3407,11 @@
       <c r="A72" s="21">
         <v>69</v>
       </c>
-      <c r="B72" s="31" t="s">
+      <c r="B72" s="32" t="s">
         <v>74</v>
       </c>
       <c r="C72" s="22"/>
-      <c r="D72" s="31" t="s">
+      <c r="D72" s="32" t="s">
         <v>98</v>
       </c>
       <c r="E72" s="23"/>
@@ -3417,11 +3420,11 @@
       <c r="A73" s="21">
         <v>70</v>
       </c>
-      <c r="B73" s="31" t="s">
+      <c r="B73" s="32" t="s">
         <v>75</v>
       </c>
       <c r="C73" s="22"/>
-      <c r="D73" s="31" t="s">
+      <c r="D73" s="32" t="s">
         <v>98</v>
       </c>
       <c r="E73" s="23"/>
@@ -3430,11 +3433,11 @@
       <c r="A74" s="21">
         <v>71</v>
       </c>
-      <c r="B74" s="31" t="s">
+      <c r="B74" s="32" t="s">
         <v>76</v>
       </c>
       <c r="C74" s="22"/>
-      <c r="D74" s="31" t="s">
+      <c r="D74" s="32" t="s">
         <v>98</v>
       </c>
       <c r="E74" s="23"/>
@@ -3443,11 +3446,11 @@
       <c r="A75" s="21">
         <v>72</v>
       </c>
-      <c r="B75" s="31" t="s">
+      <c r="B75" s="32" t="s">
         <v>77</v>
       </c>
       <c r="C75" s="22"/>
-      <c r="D75" s="31" t="s">
+      <c r="D75" s="32" t="s">
         <v>98</v>
       </c>
       <c r="E75" s="23"/>
@@ -3456,11 +3459,11 @@
       <c r="A76" s="21">
         <v>73</v>
       </c>
-      <c r="B76" s="31" t="s">
+      <c r="B76" s="32" t="s">
         <v>78</v>
       </c>
       <c r="C76" s="22"/>
-      <c r="D76" s="31" t="s">
+      <c r="D76" s="32" t="s">
         <v>98</v>
       </c>
       <c r="E76" s="23"/>
@@ -3469,11 +3472,11 @@
       <c r="A77" s="21">
         <v>74</v>
       </c>
-      <c r="B77" s="31" t="s">
+      <c r="B77" s="32" t="s">
         <v>79</v>
       </c>
       <c r="C77" s="22"/>
-      <c r="D77" s="31" t="s">
+      <c r="D77" s="32" t="s">
         <v>98</v>
       </c>
       <c r="E77" s="23"/>
@@ -3482,11 +3485,11 @@
       <c r="A78" s="21">
         <v>75</v>
       </c>
-      <c r="B78" s="31" t="s">
+      <c r="B78" s="32" t="s">
         <v>80</v>
       </c>
       <c r="C78" s="22"/>
-      <c r="D78" s="31" t="s">
+      <c r="D78" s="32" t="s">
         <v>98</v>
       </c>
       <c r="E78" s="23"/>
@@ -3495,11 +3498,11 @@
       <c r="A79" s="21">
         <v>76</v>
       </c>
-      <c r="B79" s="31" t="s">
+      <c r="B79" s="32" t="s">
         <v>81</v>
       </c>
       <c r="C79" s="22"/>
-      <c r="D79" s="31" t="s">
+      <c r="D79" s="32" t="s">
         <v>98</v>
       </c>
       <c r="E79" s="23"/>
@@ -3508,11 +3511,11 @@
       <c r="A80" s="21">
         <v>77</v>
       </c>
-      <c r="B80" s="31" t="s">
+      <c r="B80" s="32" t="s">
         <v>82</v>
       </c>
       <c r="C80" s="22"/>
-      <c r="D80" s="31" t="s">
+      <c r="D80" s="32" t="s">
         <v>98</v>
       </c>
       <c r="E80" s="23"/>
@@ -3521,83 +3524,83 @@
       <c r="A81" s="21">
         <v>78</v>
       </c>
-      <c r="B81" s="31" t="s">
+      <c r="B81" s="32" t="s">
         <v>83</v>
       </c>
       <c r="C81" s="22"/>
-      <c r="D81" s="31" t="s">
+      <c r="D81" s="32" t="s">
         <v>98</v>
       </c>
       <c r="E81" s="23"/>
     </row>
     <row r="82" spans="1:6" s="1" customFormat="1">
-      <c r="A82" s="45">
+      <c r="A82" s="47">
         <v>79</v>
       </c>
-      <c r="B82" s="46" t="s">
+      <c r="B82" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="C82" s="47"/>
-      <c r="D82" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="E82" s="48"/>
+      <c r="C82" s="49"/>
+      <c r="D82" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="E82" s="50"/>
     </row>
     <row r="83" spans="1:6" s="1" customFormat="1">
-      <c r="A83" s="77">
+      <c r="A83" s="78">
         <v>80</v>
       </c>
-      <c r="B83" s="77" t="s">
+      <c r="B83" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C83" s="77"/>
-      <c r="D83" s="77" t="s">
-        <v>98</v>
-      </c>
-      <c r="E83" s="77"/>
-      <c r="F83" s="78"/>
+      <c r="C83" s="78"/>
+      <c r="D83" s="78" t="s">
+        <v>98</v>
+      </c>
+      <c r="E83" s="75"/>
+      <c r="F83" s="79"/>
     </row>
     <row r="84" spans="1:6" s="1" customFormat="1">
-      <c r="A84" s="76">
+      <c r="A84" s="77">
         <v>81</v>
       </c>
-      <c r="B84" s="76" t="s">
+      <c r="B84" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="C84" s="76"/>
-      <c r="D84" s="76" t="s">
+      <c r="C84" s="77"/>
+      <c r="D84" s="77" t="s">
         <v>98</v>
       </c>
       <c r="E84" s="76"/>
-      <c r="F84" s="78"/>
+      <c r="F84" s="79"/>
     </row>
     <row r="85" spans="1:6" s="1" customFormat="1">
-      <c r="A85" s="76">
+      <c r="A85" s="77">
         <v>82</v>
       </c>
-      <c r="B85" s="76" t="s">
+      <c r="B85" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="C85" s="76"/>
-      <c r="D85" s="76" t="s">
+      <c r="C85" s="77"/>
+      <c r="D85" s="77" t="s">
         <v>98</v>
       </c>
       <c r="E85" s="76"/>
-      <c r="F85" s="78"/>
+      <c r="F85" s="79"/>
     </row>
     <row r="86" spans="1:6" s="1" customFormat="1">
-      <c r="A86" s="76">
+      <c r="A86" s="77">
         <v>83</v>
       </c>
-      <c r="B86" s="76" t="s">
+      <c r="B86" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="C86" s="76"/>
-      <c r="D86" s="76" t="s">
+      <c r="C86" s="77"/>
+      <c r="D86" s="77" t="s">
         <v>98</v>
       </c>
       <c r="E86" s="76"/>
-      <c r="F86" s="78"/>
+      <c r="F86" s="79"/>
     </row>
     <row r="87" spans="1:6" s="1" customFormat="1">
       <c r="A87" s="19">
@@ -3610,8 +3613,8 @@
       <c r="D87" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="E87" s="19"/>
-      <c r="F87" s="78"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="79"/>
     </row>
     <row r="88" spans="1:6" s="1" customFormat="1">
       <c r="A88" s="19">
@@ -3624,8 +3627,8 @@
       <c r="D88" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="E88" s="19"/>
-      <c r="F88" s="78"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="79"/>
     </row>
     <row r="89" spans="1:6" s="1" customFormat="1">
       <c r="A89" s="19">
@@ -3638,66 +3641,66 @@
       <c r="D89" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="E89" s="19"/>
-      <c r="F89" s="78"/>
+      <c r="E89" s="31"/>
+      <c r="F89" s="79"/>
     </row>
     <row r="90" spans="1:6" s="1" customFormat="1">
-      <c r="A90" s="40">
+      <c r="A90" s="41">
         <v>87</v>
       </c>
-      <c r="B90" s="40" t="s">
+      <c r="B90" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C90" s="40"/>
-      <c r="D90" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="E90" s="40"/>
-      <c r="F90" s="78"/>
+      <c r="C90" s="41"/>
+      <c r="D90" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="E90" s="42"/>
+      <c r="F90" s="79"/>
     </row>
     <row r="91" spans="1:6" s="1" customFormat="1">
-      <c r="A91" s="75" t="s">
+      <c r="A91" s="74" t="s">
+        <v>217</v>
+      </c>
+      <c r="B91" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="C91" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="D91" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="E91" s="53" t="s">
         <v>219</v>
       </c>
-      <c r="B91" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="C91" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="D91" s="52" t="s">
-        <v>98</v>
-      </c>
-      <c r="E91" s="54" t="s">
-        <v>221</v>
-      </c>
     </row>
     <row r="92" spans="1:6" s="1" customFormat="1">
-      <c r="A92" s="84" t="s">
-        <v>229</v>
+      <c r="A92" s="85" t="s">
+        <v>226</v>
       </c>
       <c r="B92" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C92" s="38"/>
+      <c r="C92" s="39"/>
       <c r="D92" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E92" s="39" t="s">
-        <v>220</v>
+      <c r="E92" s="40" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="93" spans="1:6" s="1" customFormat="1">
       <c r="A93" s="24">
         <v>90</v>
       </c>
-      <c r="B93" s="32" t="s">
+      <c r="B93" s="33" t="s">
         <v>86</v>
       </c>
       <c r="C93" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D93" s="32" t="s">
+      <c r="D93" s="33" t="s">
         <v>98</v>
       </c>
       <c r="E93" s="26" t="s">
@@ -3708,13 +3711,13 @@
       <c r="A94" s="27">
         <v>91</v>
       </c>
-      <c r="B94" s="33" t="s">
+      <c r="B94" s="34" t="s">
         <v>86</v>
       </c>
       <c r="C94" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="D94" s="33" t="s">
+      <c r="D94" s="34" t="s">
         <v>98</v>
       </c>
       <c r="E94" s="29" t="s">
@@ -3723,7 +3726,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="39" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -3731,8 +3735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8CB8086-9D32-0243-8579-C596BFD9B71A}">
   <dimension ref="A1:E108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3756,17 +3760,17 @@
       <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="83" t="s">
         <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="71" t="s">
-        <v>258</v>
-      </c>
-      <c r="D2" s="70" t="s">
-        <v>259</v>
+      <c r="C2" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="D2" s="69" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3786,7 +3790,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3796,7 +3800,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3818,7 +3822,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="89" t="s">
+      <c r="C8" s="90" t="s">
         <v>195</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -3828,10 +3832,10 @@
     <row r="9" spans="1:5">
       <c r="A9" s="6"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="82">
+      <c r="C9" s="83">
         <v>11002</v>
       </c>
-      <c r="D9" s="88" t="s">
+      <c r="D9" s="89" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3858,272 +3862,272 @@
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1">
-      <c r="A13" s="73" t="s">
-        <v>262</v>
-      </c>
-      <c r="B13" s="73" t="s">
-        <v>216</v>
-      </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="80" t="s">
-        <v>228</v>
-      </c>
-      <c r="E13" s="81"/>
+      <c r="A13" s="72" t="s">
+        <v>259</v>
+      </c>
+      <c r="B13" s="72" t="s">
+        <v>214</v>
+      </c>
+      <c r="C13" s="72"/>
+      <c r="D13" s="81" t="s">
+        <v>260</v>
+      </c>
+      <c r="E13" s="82"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="59" t="s">
+        <v>221</v>
+      </c>
+      <c r="B14" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" s="59" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="62"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="62"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="62"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" s="62" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="62"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="62" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="62"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="D19" s="62" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="62"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20" s="62" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="62"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="D21" s="62" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="62"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" s="62" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="62"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" s="62" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="62"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" s="62" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="62"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" s="62" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="62"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" s="62" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="62"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="D27" s="62" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="62"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="62" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="65"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" s="65" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="62" t="s">
+        <v>222</v>
+      </c>
+      <c r="B30" s="62" t="s">
+        <v>183</v>
+      </c>
+      <c r="C30" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="D30" s="62" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="65"/>
+      <c r="B31" s="71" t="s">
+        <v>206</v>
+      </c>
+      <c r="C31" s="66" t="s">
+        <v>186</v>
+      </c>
+      <c r="D31" s="65" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="B14" s="60" t="s">
-        <v>154</v>
-      </c>
-      <c r="C14" s="61" t="s">
-        <v>161</v>
-      </c>
-      <c r="D14" s="60" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="63"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="64" t="s">
-        <v>155</v>
-      </c>
-      <c r="D15" s="63" t="s">
-        <v>188</v>
-      </c>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="63"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="64" t="s">
-        <v>156</v>
-      </c>
-      <c r="D16" s="63" t="s">
-        <v>189</v>
-      </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="63"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="64" t="s">
-        <v>157</v>
-      </c>
-      <c r="D17" s="63" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="63"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="64" t="s">
-        <v>158</v>
-      </c>
-      <c r="D18" s="63" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="63"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="64" t="s">
-        <v>159</v>
-      </c>
-      <c r="D19" s="63" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="63"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="64" t="s">
-        <v>160</v>
-      </c>
-      <c r="D20" s="63" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="63"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="64" t="s">
-        <v>152</v>
-      </c>
-      <c r="D21" s="63" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="63"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="64" t="s">
-        <v>151</v>
-      </c>
-      <c r="D22" s="63" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="63"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="64" t="s">
-        <v>150</v>
-      </c>
-      <c r="D23" s="63" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="63"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="64" t="s">
-        <v>149</v>
-      </c>
-      <c r="D24" s="63" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="63"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="64" t="s">
-        <v>148</v>
-      </c>
-      <c r="D25" s="63" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="63"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="64" t="s">
-        <v>147</v>
-      </c>
-      <c r="D26" s="63" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="63"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="64" t="s">
-        <v>146</v>
-      </c>
-      <c r="D27" s="63" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="63"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="D28" s="63" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="66"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="67" t="s">
-        <v>143</v>
-      </c>
-      <c r="D29" s="66" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="63" t="s">
+      <c r="B32" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="C32" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="D32" s="62" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="65"/>
+      <c r="B33" s="71" t="s">
+        <v>206</v>
+      </c>
+      <c r="C33" s="66" t="s">
+        <v>186</v>
+      </c>
+      <c r="D33" s="65" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="62" t="s">
         <v>224</v>
       </c>
-      <c r="B30" s="63" t="s">
-        <v>183</v>
-      </c>
-      <c r="C30" s="64" t="s">
+      <c r="B34" s="62" t="s">
+        <v>198</v>
+      </c>
+      <c r="C34" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="D30" s="63" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="66"/>
-      <c r="B31" s="72" t="s">
-        <v>206</v>
-      </c>
-      <c r="C31" s="67" t="s">
+      <c r="D34" s="62" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="65"/>
+      <c r="B35" s="71" t="s">
+        <v>205</v>
+      </c>
+      <c r="C35" s="66" t="s">
         <v>186</v>
       </c>
-      <c r="D31" s="66" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="63" t="s">
+      <c r="D35" s="65" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="84" t="s">
         <v>225</v>
       </c>
-      <c r="B32" s="63" t="s">
-        <v>184</v>
-      </c>
-      <c r="C32" s="64" t="s">
-        <v>185</v>
-      </c>
-      <c r="D32" s="63" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="66"/>
-      <c r="B33" s="72" t="s">
-        <v>206</v>
-      </c>
-      <c r="C33" s="67" t="s">
-        <v>186</v>
-      </c>
-      <c r="D33" s="66" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="63" t="s">
-        <v>226</v>
-      </c>
-      <c r="B34" s="63" t="s">
-        <v>198</v>
-      </c>
-      <c r="C34" s="64" t="s">
-        <v>185</v>
-      </c>
-      <c r="D34" s="63" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="66"/>
-      <c r="B35" s="72" t="s">
-        <v>205</v>
-      </c>
-      <c r="C35" s="67" t="s">
-        <v>186</v>
-      </c>
-      <c r="D35" s="66" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="83" t="s">
-        <v>227</v>
-      </c>
-      <c r="B36" s="74" t="s">
-        <v>217</v>
-      </c>
-      <c r="C36" s="79"/>
-      <c r="D36" s="74" t="s">
-        <v>257</v>
+      <c r="B36" s="73" t="s">
+        <v>215</v>
+      </c>
+      <c r="C36" s="80"/>
+      <c r="D36" s="73" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -4243,13 +4247,13 @@
     <row r="49" spans="1:4">
       <c r="A49" s="12"/>
       <c r="B49" s="12" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C49" s="12">
         <v>1001</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -4283,13 +4287,13 @@
     <row r="53" spans="1:4">
       <c r="A53" s="12"/>
       <c r="B53" s="12" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C53" s="12">
         <v>2001</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -4323,13 +4327,13 @@
     <row r="57" spans="1:4">
       <c r="A57" s="12"/>
       <c r="B57" s="12" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C57" s="12">
         <v>3001</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -4363,13 +4367,13 @@
     <row r="61" spans="1:4">
       <c r="A61" s="12"/>
       <c r="B61" s="12" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C61" s="12">
         <v>4001</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -4403,13 +4407,13 @@
     <row r="65" spans="1:4">
       <c r="A65" s="12"/>
       <c r="B65" s="12" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C65" s="12">
         <v>5001</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -4443,13 +4447,13 @@
     <row r="69" spans="1:4">
       <c r="A69" s="12"/>
       <c r="B69" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C69" s="12">
         <v>6001</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -4483,13 +4487,13 @@
     <row r="73" spans="1:4">
       <c r="A73" s="12"/>
       <c r="B73" s="12" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C73" s="12">
         <v>7001</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -4527,7 +4531,7 @@
         <v>8001</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -4561,13 +4565,13 @@
     <row r="81" spans="1:4">
       <c r="A81" s="12"/>
       <c r="B81" s="12" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C81" s="12">
         <v>9001</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -4605,7 +4609,7 @@
         <v>10001</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -4643,7 +4647,7 @@
       <c r="B89" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C89" s="69" t="s">
+      <c r="C89" s="68" t="s">
         <v>98</v>
       </c>
       <c r="D89" s="8" t="s">
@@ -4663,160 +4667,161 @@
       <c r="D91" s="10"/>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="86" t="s">
-        <v>238</v>
-      </c>
-      <c r="B92" s="85" t="s">
+      <c r="A92" s="87" t="s">
+        <v>235</v>
+      </c>
+      <c r="B92" s="86" t="s">
         <v>208</v>
       </c>
-      <c r="C92" s="56" t="s">
+      <c r="C92" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="D92" s="58" t="s">
+      <c r="D92" s="57" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="59"/>
-      <c r="B93" s="59"/>
-      <c r="C93" s="55" t="s">
+      <c r="A93" s="58"/>
+      <c r="B93" s="58"/>
+      <c r="C93" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="D93" s="59" t="s">
+      <c r="D93" s="58" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="59"/>
-      <c r="B94" s="59"/>
-      <c r="C94" s="55" t="s">
+      <c r="A94" s="58"/>
+      <c r="B94" s="58"/>
+      <c r="C94" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="D94" s="59" t="s">
+      <c r="D94" s="58" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="59"/>
-      <c r="B95" s="59"/>
-      <c r="C95" s="55" t="s">
+      <c r="A95" s="58"/>
+      <c r="B95" s="58"/>
+      <c r="C95" s="54" t="s">
         <v>163</v>
       </c>
-      <c r="D95" s="59" t="s">
+      <c r="D95" s="58" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="59"/>
-      <c r="B96" s="59"/>
-      <c r="C96" s="55" t="s">
+      <c r="A96" s="58"/>
+      <c r="B96" s="58"/>
+      <c r="C96" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="D96" s="59" t="s">
-        <v>236</v>
+      <c r="D96" s="58" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="59"/>
-      <c r="B97" s="59"/>
-      <c r="C97" s="55" t="s">
+      <c r="A97" s="58"/>
+      <c r="B97" s="58"/>
+      <c r="C97" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="D97" s="59" t="s">
+      <c r="D97" s="58" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="58"/>
+      <c r="B98" s="58"/>
+      <c r="C98" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="D98" s="58" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="58"/>
+      <c r="B99" s="58"/>
+      <c r="C99" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="D99" s="58" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="58"/>
+      <c r="B100" s="58"/>
+      <c r="C100" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="D100" s="58" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="59"/>
-      <c r="B98" s="59"/>
-      <c r="C98" s="55" t="s">
-        <v>166</v>
-      </c>
-      <c r="D98" s="59" t="s">
+    <row r="101" spans="1:5">
+      <c r="A101" s="58"/>
+      <c r="B101" s="58"/>
+      <c r="C101" s="54"/>
+      <c r="D101" s="58" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="59"/>
-      <c r="B99" s="59"/>
-      <c r="C99" s="55" t="s">
-        <v>167</v>
-      </c>
-      <c r="D99" s="59" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="59"/>
-      <c r="B100" s="59"/>
-      <c r="C100" s="55" t="s">
+    <row r="102" spans="1:5">
+      <c r="A102" s="58"/>
+      <c r="B102" s="58"/>
+      <c r="C102" s="54"/>
+      <c r="D102" s="58" t="s">
         <v>232</v>
       </c>
-      <c r="D100" s="59" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="59"/>
-      <c r="B101" s="59"/>
-      <c r="C101" s="55"/>
-      <c r="D101" s="59" t="s">
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="58"/>
+      <c r="B103" s="58"/>
+      <c r="C103" s="54"/>
+      <c r="D103" s="58"/>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="58"/>
+      <c r="B104" s="56"/>
+      <c r="C104" s="56"/>
+      <c r="D104" s="58"/>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="58"/>
+      <c r="B105" s="58"/>
+      <c r="C105" s="54"/>
+      <c r="D105" s="58"/>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="58"/>
+      <c r="B106" s="58"/>
+      <c r="C106" s="54"/>
+      <c r="D106" s="58"/>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="58"/>
+      <c r="B107" s="58"/>
+      <c r="C107" s="54"/>
+      <c r="D107" s="58"/>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="88" t="s">
         <v>234</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="59"/>
-      <c r="B102" s="59"/>
-      <c r="C102" s="55"/>
-      <c r="D102" s="59" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="59"/>
-      <c r="B103" s="59"/>
-      <c r="C103" s="55"/>
-      <c r="D103" s="59"/>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="59"/>
-      <c r="B104" s="57"/>
-      <c r="C104" s="57"/>
-      <c r="D104" s="59"/>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="59"/>
-      <c r="B105" s="59"/>
-      <c r="C105" s="55"/>
-      <c r="D105" s="59"/>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="59"/>
-      <c r="B106" s="59"/>
-      <c r="C106" s="55"/>
-      <c r="D106" s="59"/>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="59"/>
-      <c r="B107" s="59"/>
-      <c r="C107" s="55"/>
-      <c r="D107" s="59"/>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="87" t="s">
-        <v>237</v>
       </c>
       <c r="B108" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C108" s="38"/>
-      <c r="D108" s="37" t="s">
-        <v>256</v>
-      </c>
-      <c r="E108" s="78"/>
+      <c r="C108" s="39"/>
+      <c r="D108" s="38" t="s">
+        <v>253</v>
+      </c>
+      <c r="E108" s="79"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>